--- a/Projects/PEPSICOUK_SAND/Data/Inclusion_Exclusion_Template_Rollout.xlsx
+++ b/Projects/PEPSICOUK_SAND/Data/Inclusion_Exclusion_Template_Rollout.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="63">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -257,7 +257,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +292,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF950E"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -329,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,6 +380,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,7 +418,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -455,20 +465,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0242914979757"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1170,7 +1180,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -1187,7 +1197,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1204,7 +1214,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -1221,7 +1231,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -1238,7 +1248,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -1254,37 +1264,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="B47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="10" t="n">
+      <c r="A48" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,16 +1302,16 @@
       <c r="A49" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="0" t="n">
+      <c r="B49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1309,31 +1319,31 @@
       <c r="A50" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="10" t="n">
+      <c r="B50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51" s="10" t="n">
         <v>1</v>
@@ -1343,33 +1353,33 @@
       <c r="A52" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="0" t="n">
+      <c r="B52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1377,22 +1387,22 @@
       <c r="A54" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="0" t="n">
+      <c r="B54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>6</v>
@@ -1409,7 +1419,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>6</v>
@@ -1421,6 +1431,23 @@
         <v>52</v>
       </c>
       <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,8 +1475,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
@@ -1458,10 +1485,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Projects/PEPSICOUK_SAND/Data/Inclusion_Exclusion_Template_Rollout.xlsx
+++ b/Projects/PEPSICOUK_SAND/Data/Inclusion_Exclusion_Template_Rollout.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="64">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -56,6 +56,12 @@
     <t xml:space="preserve">additional display</t>
   </si>
   <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrelevant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hero SKU Availability - SKU</t>
   </si>
   <si>
@@ -174,9 +180,6 @@
   </si>
   <si>
     <t xml:space="preserve">Secondary Brand Of Category SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_type</t>
   </si>
   <si>
     <t xml:space="preserve">POS</t>
@@ -465,20 +468,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -535,33 +538,33 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -569,50 +572,50 @@
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
+      <c r="A8" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -620,33 +623,33 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>20</v>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -654,16 +657,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -671,50 +674,50 @@
     </row>
     <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>20</v>
+      <c r="A14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -722,16 +725,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -739,50 +742,50 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
@@ -790,16 +793,16 @@
     </row>
     <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
@@ -807,16 +810,16 @@
     </row>
     <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
@@ -824,33 +827,33 @@
     </row>
     <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>31</v>
+    <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -858,13 +861,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>33</v>
@@ -875,13 +878,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>35</v>
@@ -895,10 +898,10 @@
         <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>37</v>
@@ -908,31 +911,31 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="9" t="n">
+      <c r="B26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>33</v>
@@ -943,15 +946,15 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="9" t="n">
@@ -960,15 +963,15 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="9" t="n">
@@ -976,31 +979,31 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="10" t="n">
+      <c r="A30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>33</v>
@@ -1011,13 +1014,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>35</v>
@@ -1028,13 +1031,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>37</v>
@@ -1044,31 +1047,31 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="A34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>33</v>
@@ -1079,15 +1082,15 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="0" t="n">
@@ -1096,15 +1099,15 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="0" t="n">
@@ -1113,30 +1116,30 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>33</v>
@@ -1147,13 +1150,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>35</v>
@@ -1164,13 +1167,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>37</v>
@@ -1180,31 +1183,31 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="A42" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>33</v>
@@ -1215,16 +1218,16 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="0" t="s">
         <v>52</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
@@ -1232,16 +1235,16 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
@@ -1249,103 +1252,103 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E48" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="10" t="n">
+      <c r="B49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1354,10 +1357,10 @@
         <v>56</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>35</v>
@@ -1368,18 +1371,18 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1387,33 +1390,33 @@
       <c r="A54" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="10" t="n">
+      <c r="B54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1425,10 +1428,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1</v>
@@ -1442,12 +1445,29 @@
         <v>6</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1475,8 +1495,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
@@ -1486,42 +1506,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3"/>
     </row>
